--- a/ProgettoDB/res/tables/MaleniaData.xlsx
+++ b/ProgettoDB/res/tables/MaleniaData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Progetto\Hotel-Malenia\res\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Progetto\Hotel-Malenia\ProgettoDB\res\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16698A8-921F-4F38-B6A7-E56475C8F550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D771564-1B29-4DCE-BE0D-AD65051241D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{1E9E1B00-858F-4184-A9F3-6F302A51F4E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1E9E1B00-858F-4184-A9F3-6F302A51F4E6}"/>
   </bookViews>
   <sheets>
     <sheet name="prezziHotel" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="162">
   <si>
     <t>Concetto</t>
   </si>
@@ -591,12 +591,6 @@
   </si>
   <si>
     <t>Piano tariffario dell'hotel che garantisce al cliente la permanenza nella struttura, la consumazione gratuita dei 3 pasti principali della giornata e una base di servizi che normalmente sarebbero a pagamento.</t>
-  </si>
-  <si>
-    <t>Richiesta specifica di una bevanda a base di caffè che non è prevista nel menù.</t>
-  </si>
-  <si>
-    <t>Consumazione extra</t>
   </si>
   <si>
     <t>Volume</t>
@@ -1130,7 +1124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1258,15 +1252,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1312,7 +1297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1391,21 +1376,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -2057,8 +2036,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}" name="Tabella17" displayName="Tabella17" ref="D4:F16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
-  <autoFilter ref="D4:F16" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}" name="Tabella17" displayName="Tabella17" ref="D4:F15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+  <autoFilter ref="D4:F15" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CE1965F7-5B83-469B-BAE1-B40A3E6BABF7}" name="TERMINE" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{4F3175D3-AC56-4BA9-8783-0AE12AF49FAA}" name="BREVE DESCRIZIONE" dataDxfId="1"/>
@@ -2786,22 +2765,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="5">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75EF582-CC88-40FD-A68C-9579BA74413F}">
-  <dimension ref="D3:O16"/>
+  <dimension ref="D3:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,21 +2916,11 @@
       </c>
       <c r="F15" s="35"/>
     </row>
-    <row r="16" spans="4:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="D16" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2975,273 +2945,274 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>118</v>
+      <c r="B5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="40">
+      <c r="B6" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="38">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="42">
+      <c r="B7" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="40">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="42">
+      <c r="A8" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="40">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="42">
+      <c r="B11" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="40">
         <v>10000</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="42">
+      <c r="B12" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="40">
         <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="42">
+      <c r="B13" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="40">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="42">
+      <c r="B14" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="40">
         <v>1000000</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="42">
+      <c r="B17" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="40">
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="42">
+      <c r="A18" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="40">
         <v>100000</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="42">
+      <c r="B19" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="40">
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="42">
+      <c r="B22" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="42">
+      <c r="B23" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="40">
         <v>100000</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="42">
+      <c r="A24" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="40">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="44">
+      <c r="A27" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="42">
         <v>3000</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="42">
+      <c r="A28" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="40">
         <v>3000</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="41">
+      <c r="B29" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="39">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="42">
+      <c r="A32" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="46">
+      <c r="A33" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="44">
         <v>1</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="42">
+      <c r="B36" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="42">
+      <c r="B37" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="40">
         <v>10000</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="42">
+      <c r="B38" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="40">
         <v>10000</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="42">
+      <c r="A39" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="40">
         <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3260,14 +3231,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="45" t="s">
         <v>127</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3275,10 +3246,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3286,10 +3257,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3297,10 +3268,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3308,10 +3279,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3319,10 +3290,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3330,10 +3301,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3341,10 +3312,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3352,10 +3323,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3363,10 +3334,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3374,10 +3345,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3385,10 +3356,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3396,14 +3367,15 @@
         <v>12</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3921,7 +3893,7 @@
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
       <c r="D42" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E42" s="17"/>
     </row>
@@ -4749,7 +4721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EC3296-8FDF-4C89-A16A-D342517C31E8}">
   <dimension ref="B1:E133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A115" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -4897,8 +4869,8 @@
         <v>32</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="48" t="s">
-        <v>155</v>
+      <c r="D13" s="46" t="s">
+        <v>153</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -5004,7 +4976,7 @@
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E21" s="17"/>
     </row>
@@ -5140,11 +5112,11 @@
     <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="48" t="s">
-        <v>155</v>
+      <c r="D34" s="46" t="s">
+        <v>153</v>
       </c>
       <c r="E34" s="7"/>
     </row>
@@ -5278,18 +5250,18 @@
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E44" s="17"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="48" t="s">
-        <v>155</v>
+      <c r="D52" s="46" t="s">
+        <v>153</v>
       </c>
       <c r="E52" s="7"/>
     </row>
@@ -5409,7 +5381,7 @@
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
       <c r="D61" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E61" s="17"/>
     </row>
@@ -5545,11 +5517,11 @@
     <row r="73" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C74" s="6"/>
-      <c r="D74" s="48" t="s">
-        <v>155</v>
+      <c r="D74" s="46" t="s">
+        <v>153</v>
       </c>
       <c r="E74" s="7"/>
     </row>
@@ -5655,18 +5627,18 @@
       <c r="B82" s="14"/>
       <c r="C82" s="15"/>
       <c r="D82" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E82" s="17"/>
     </row>
     <row r="83" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="46" t="s">
         <v>153</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="48" t="s">
-        <v>155</v>
       </c>
       <c r="E84" s="7"/>
     </row>
@@ -6040,11 +6012,11 @@
     <row r="124" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C125" s="6"/>
-      <c r="D125" s="48" t="s">
-        <v>155</v>
+      <c r="D125" s="46" t="s">
+        <v>153</v>
       </c>
       <c r="E125" s="7"/>
     </row>
@@ -6150,7 +6122,7 @@
       <c r="B133" s="14"/>
       <c r="C133" s="15"/>
       <c r="D133" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E133" s="17"/>
     </row>

--- a/ProgettoDB/res/tables/MaleniaData.xlsx
+++ b/ProgettoDB/res/tables/MaleniaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Progetto\Hotel-Malenia\ProgettoDB\res\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Hotel-Malenia\ProgettoDB\res\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D771564-1B29-4DCE-BE0D-AD65051241D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBB0E3E-8B31-405E-AC2E-A7B5DF340F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{1E9E1B00-858F-4184-A9F3-6F302A51F4E6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1E9E1B00-858F-4184-A9F3-6F302A51F4E6}"/>
   </bookViews>
   <sheets>
     <sheet name="prezziHotel" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="145">
   <si>
     <t>Concetto</t>
   </si>
@@ -407,85 +407,19 @@
     <t>COSTO GIORNALIERO - FAMILIARE</t>
   </si>
   <si>
-    <t>PRODOTTO</t>
-  </si>
-  <si>
-    <t>LISTINO ALL - INCLUSIVE</t>
-  </si>
-  <si>
-    <t>LISTINO NORMALE</t>
-  </si>
-  <si>
-    <t>Caffè</t>
-  </si>
-  <si>
-    <t>Gratuito</t>
-  </si>
-  <si>
-    <t>Cappuccino</t>
-  </si>
-  <si>
     <t>SERVIZI HOTEL</t>
   </si>
   <si>
-    <t>Infuso</t>
-  </si>
-  <si>
     <t>Lettino Spiaggia</t>
   </si>
   <si>
-    <t>Già compresa nel pacchetto</t>
-  </si>
-  <si>
-    <t>Variante caffetteria</t>
-  </si>
-  <si>
     <t>Palestra</t>
   </si>
   <si>
-    <t>Spremuta</t>
-  </si>
-  <si>
     <t>Casinò</t>
   </si>
   <si>
-    <t>Succo</t>
-  </si>
-  <si>
     <t>Parcheggio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bevanda </t>
-  </si>
-  <si>
-    <t>Colazione in camera</t>
-  </si>
-  <si>
-    <t>10,00 € a persona</t>
-  </si>
-  <si>
-    <t>Calice vino</t>
-  </si>
-  <si>
-    <t>Variabile</t>
-  </si>
-  <si>
-    <t>Bottiglia vino</t>
-  </si>
-  <si>
-    <t>Birra media</t>
-  </si>
-  <si>
-    <t>Birra grande</t>
-  </si>
-  <si>
-    <t>Spritz</t>
-  </si>
-  <si>
-    <t>Analcolico</t>
-  </si>
-  <si>
-    <t>Cocktail</t>
   </si>
   <si>
     <t>SERVIZI BENESSERE</t>
@@ -522,9 +456,6 @@
     <t>Turista</t>
   </si>
   <si>
-    <t>Oggetto che riporta i dati personali di un cliente.</t>
-  </si>
-  <si>
     <t>Membro del personale</t>
   </si>
   <si>
@@ -543,25 +474,10 @@
     <t>Mansione</t>
   </si>
   <si>
-    <t>Listino</t>
-  </si>
-  <si>
-    <t>Quantità di denaro necessaria per poter ottenere una eventuale prestazione oppure per poter acquasitare una bevanda o un prodotto.</t>
-  </si>
-  <si>
-    <t>Prezzo, Costo</t>
-  </si>
-  <si>
     <t>Resoconto di pagamento</t>
   </si>
   <si>
-    <t>Quantità di denaro rimanente che il cliente deve versare all'hotel al termine del suo soggiorno.</t>
-  </si>
-  <si>
     <t>Permanenza temporanea in un luogo.</t>
-  </si>
-  <si>
-    <t>Villeggiatura</t>
   </si>
   <si>
     <t>Servizio</t>
@@ -578,16 +494,6 @@
   </si>
   <si>
     <t>Stanza della struttura in grado di accogliere un nucleo familiare di 4 oppure 5 persone.</t>
-  </si>
-  <si>
-    <t>Pensiona completa</t>
-  </si>
-  <si>
-    <t>Piano tariffario dell'hotel che garantisce al
-cliente la permanenza nella struttura e la consumazione gratuita dei 3 pasti principali della giornata.</t>
-  </si>
-  <si>
-    <t>All-inclusive</t>
   </si>
   <si>
     <t>Piano tariffario dell'hotel che garantisce al cliente la permanenza nella struttura, la consumazione gratuita dei 3 pasti principali della giornata e una base di servizi che normalmente sarebbero a pagamento.</t>
@@ -1049,6 +955,48 @@
   </si>
   <si>
     <t>OP 12 - Generazione documento</t>
+  </si>
+  <si>
+    <t>Oggetto che riporta i dati personali e il resoconto di un cliente.</t>
+  </si>
+  <si>
+    <t>Quantità di denaro necessaria per poter usufruire di un eventuale servizio.</t>
+  </si>
+  <si>
+    <t>Quantità di denaro rappresentante il debito del cliente nei confronti dell'hotel.</t>
+  </si>
+  <si>
+    <t>Villeggiatura, Vacanza</t>
+  </si>
+  <si>
+    <t>Piano tariffario dell'hotel che garantisce al cliente la permanenza nella struttura e la consumazione gratuita dei 3 pasti principali della giornata.</t>
+  </si>
+  <si>
+    <t>Bed&amp;Breakfast (BB)</t>
+  </si>
+  <si>
+    <t>Piano tariffario</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Prezzo, Tariffa</t>
+  </si>
+  <si>
+    <t>Piano tariffario dell'hotel che garantisce la permanenza nella struttura e la colazione della mattina seguente, questo fino al termine del periodo di soggiorno.</t>
+  </si>
+  <si>
+    <t>Offerta data ai clienti per poter usufruire, secondo varie possibilità, dei servizi offerti dall'hotel. Il piano tariffario varia e di conseguenza ne varia anche il suo costo.</t>
+  </si>
+  <si>
+    <t>Pacchetto vacanza.</t>
+  </si>
+  <si>
+    <t>Pensiona completa (PC)</t>
+  </si>
+  <si>
+    <t>All-inclusive (ALI)</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1046,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1108,12 +1056,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1349,18 +1291,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1376,7 +1306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1385,13 +1315,37 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1593,6 +1547,64 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1608,6 +1620,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1695,6 +1723,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1755,212 +1799,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1975,73 +1813,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B81FD6EF-9C3F-4B92-BE77-80A5DB308398}" name="Tabella1" displayName="Tabella1" ref="D4:G7" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
-  <autoFilter ref="D4:G7" xr:uid="{B81FD6EF-9C3F-4B92-BE77-80A5DB308398}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B81FD6EF-9C3F-4B92-BE77-80A5DB308398}" name="Tabella1" displayName="Tabella1" ref="B4:E7" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
+  <autoFilter ref="B4:E7" xr:uid="{B81FD6EF-9C3F-4B92-BE77-80A5DB308398}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EDB5CAB9-859E-4CA5-BC74-2C52F6836EE4}" name="PACCHETTO VACANZE" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{0569EA2E-A953-44E4-92B1-5381D27F006F}" name="COSTO SETTIMANALE - SINGOLA" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{23F2F3A9-F159-4A53-8D52-8710B82F343C}" name="COSTO SETTIMANALE - DOPPIA" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{63AFC297-D316-4925-9353-CAFCB5941A96}" name="COSTO SETTIMANALE - FAMILIARE" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{EDB5CAB9-859E-4CA5-BC74-2C52F6836EE4}" name="PACCHETTO VACANZE" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{0569EA2E-A953-44E4-92B1-5381D27F006F}" name="COSTO SETTIMANALE - SINGOLA" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{23F2F3A9-F159-4A53-8D52-8710B82F343C}" name="COSTO SETTIMANALE - DOPPIA" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{63AFC297-D316-4925-9353-CAFCB5941A96}" name="COSTO SETTIMANALE - FAMILIARE" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81903738-74C5-4093-9441-E414A4DD48D1}" name="Tabella13" displayName="Tabella13" ref="D9:G12" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
-  <autoFilter ref="D9:G12" xr:uid="{81903738-74C5-4093-9441-E414A4DD48D1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{81903738-74C5-4093-9441-E414A4DD48D1}" name="Tabella13" displayName="Tabella13" ref="B9:E12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
+  <autoFilter ref="B9:E12" xr:uid="{81903738-74C5-4093-9441-E414A4DD48D1}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A8ED6124-E717-48ED-9F89-5149D3AB29C1}" name="PACCHETTO VACANZE" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{F98C636A-37DE-4DBC-B03F-984EBA52ACE2}" name="COSTO GIORNALIERO - SINGOLA" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{E37DD224-ACBC-4487-881B-4C74A17BD987}" name="COSTO GIORNALIERO - DOPPIA" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{A9F0470A-4902-48E2-8CD3-25A516BEC109}" name="COSTO GIORNALIERO - FAMILIARE" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{A8ED6124-E717-48ED-9F89-5149D3AB29C1}" name="PACCHETTO VACANZE" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{F98C636A-37DE-4DBC-B03F-984EBA52ACE2}" name="COSTO GIORNALIERO - SINGOLA" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{E37DD224-ACBC-4487-881B-4C74A17BD987}" name="COSTO GIORNALIERO - DOPPIA" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{A9F0470A-4902-48E2-8CD3-25A516BEC109}" name="COSTO GIORNALIERO - FAMILIARE" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4CCD44E5-2463-400A-84AD-2A6CD64F78C6}" name="Tabella3" displayName="Tabella3" ref="E14:G31" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
-  <autoFilter ref="E14:G31" xr:uid="{4CCD44E5-2463-400A-84AD-2A6CD64F78C6}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4AFFAFFF-BEE3-4EFD-8B6B-5229A5A4B4E8}" name="PRODOTTO" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{E679302A-196A-4009-96E9-6A6F1CB5152B}" name="LISTINO ALL - INCLUSIVE" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{C21D109A-4208-4EB4-B17D-34E9D1775E96}" name="LISTINO NORMALE" dataDxfId="18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{941C4DBF-D34A-46B4-B864-22D8371CC577}" name="Tabella5" displayName="Tabella5" ref="B16:C20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="B16:C20" xr:uid="{941C4DBF-D34A-46B4-B864-22D8371CC577}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FB130275-AA60-41A0-AB71-CF3DBCC02329}" name="SERVIZI BENESSERE" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CF2B0D29-9BA0-45A3-9068-17D76570C828}" name="TARIFFE" dataDxfId="8"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7F890F25-0280-4E3A-8749-08A52ED362D7}" name="Tabella4" displayName="Tabella4" ref="I16:K20" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="I16:K20" xr:uid="{7F890F25-0280-4E3A-8749-08A52ED362D7}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A750A1CF-F4B8-4682-A3AD-89400730DD5C}" name="SERVIZI HOTEL" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{6D158294-0281-4EF0-A49E-C2BBC33D47C5}" name="LISTINO ALL - INCLUSIVE" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{766766E5-5D57-4AB0-91E0-8A762034663E}" name="LISTINO NORMALE" dataDxfId="12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7F890F25-0280-4E3A-8749-08A52ED362D7}" name="Tabella4" displayName="Tabella4" ref="B24:C28" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="B24:C28" xr:uid="{7F890F25-0280-4E3A-8749-08A52ED362D7}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A750A1CF-F4B8-4682-A3AD-89400730DD5C}" name="SERVIZI HOTEL" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{6D158294-0281-4EF0-A49E-C2BBC33D47C5}" name="TARIFFE" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{941C4DBF-D34A-46B4-B864-22D8371CC577}" name="Tabella5" displayName="Tabella5" ref="E34:F38" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="E34:F38" xr:uid="{941C4DBF-D34A-46B4-B864-22D8371CC577}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FB130275-AA60-41A0-AB71-CF3DBCC02329}" name="SERVIZI BENESSERE" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CF2B0D29-9BA0-45A3-9068-17D76570C828}" name="TARIFFE" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}" name="Tabella17" displayName="Tabella17" ref="D4:F15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
-  <autoFilter ref="D4:F15" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}" name="Tabella17" displayName="Tabella17" ref="B1:D14" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="B1:D14" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CE1965F7-5B83-469B-BAE1-B40A3E6BABF7}" name="TERMINE" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4F3175D3-AC56-4BA9-8783-0AE12AF49FAA}" name="BREVE DESCRIZIONE" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E69F55AF-1F81-4B44-9386-8AD677F0DB13}" name="SINONIMI" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CE1965F7-5B83-469B-BAE1-B40A3E6BABF7}" name="TERMINE" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{4F3175D3-AC56-4BA9-8783-0AE12AF49FAA}" name="BREVE DESCRIZIONE" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E69F55AF-1F81-4B44-9386-8AD677F0DB13}" name="SINONIMI" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2344,581 +2169,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFCC1C6-B524-482C-BB0D-810C064B0A12}">
-  <dimension ref="D4:K42"/>
+  <dimension ref="B4:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="24"/>
-    <col min="4" max="4" width="26.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="24"/>
-    <col min="13" max="13" width="22.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="3.42578125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="33.28515625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="24"/>
+    <col min="11" max="11" width="22.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D4" s="24" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="C4" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="D4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="E4" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D5" s="24" t="s">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
         <v>49</v>
       </c>
+      <c r="C5" s="25">
+        <v>400</v>
+      </c>
+      <c r="D5" s="25">
+        <v>650</v>
+      </c>
       <c r="E5" s="25">
-        <v>400</v>
-      </c>
-      <c r="F5" s="25">
-        <v>650</v>
-      </c>
-      <c r="G5" s="25">
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D6" s="24" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
         <v>50</v>
       </c>
+      <c r="C6" s="25">
+        <v>500</v>
+      </c>
+      <c r="D6" s="25">
+        <v>900</v>
+      </c>
       <c r="E6" s="25">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="25">
+        <v>900</v>
+      </c>
+      <c r="D7" s="25">
+        <v>1700</v>
+      </c>
+      <c r="E7" s="25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="25">
+        <v>60</v>
+      </c>
+      <c r="D10" s="25">
+        <v>100</v>
+      </c>
+      <c r="E10" s="25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="25">
+        <v>90</v>
+      </c>
+      <c r="D11" s="25">
+        <v>160</v>
+      </c>
+      <c r="E11" s="25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="25">
+        <v>150</v>
+      </c>
+      <c r="D12" s="25">
+        <v>280</v>
+      </c>
+      <c r="E12" s="25">
         <v>500</v>
       </c>
-      <c r="F6" s="25">
-        <v>900</v>
-      </c>
-      <c r="G6" s="25">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="25">
-        <v>900</v>
-      </c>
-      <c r="F7" s="25">
-        <v>1700</v>
-      </c>
-      <c r="G7" s="25">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="25">
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="26"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="25">
-        <v>100</v>
-      </c>
-      <c r="G10" s="25">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="25">
-        <v>90</v>
-      </c>
-      <c r="F11" s="25">
-        <v>160</v>
-      </c>
-      <c r="G11" s="25">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="25">
-        <v>150</v>
-      </c>
-      <c r="F12" s="25">
-        <v>280</v>
-      </c>
-      <c r="G12" s="25">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E14" s="24" t="s">
+      <c r="C16" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="26"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="C24" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="C25" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="24" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="E15" s="24" t="s">
+      <c r="C26" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="C27" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="26"/>
-      <c r="E16" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="25">
-        <v>1.4</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E17" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="25">
-        <v>2</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="25">
+      <c r="C28" s="25">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="25">
-        <v>3</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="25">
-        <v>3.5</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="25">
-        <v>5</v>
-      </c>
-      <c r="K19" s="25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E20" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="25">
-        <v>3</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="25">
-        <v>8</v>
-      </c>
-      <c r="K20" s="25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E24" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="26"/>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E25" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E26" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="25">
-        <v>5</v>
-      </c>
-      <c r="G26" s="25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="25">
-        <v>7.5</v>
-      </c>
-      <c r="G27" s="25">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E29" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F29" s="25">
-        <v>8</v>
-      </c>
-      <c r="G29" s="25">
-        <v>8</v>
-      </c>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E30" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="25">
-        <v>6</v>
-      </c>
-      <c r="G30" s="25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="25">
-        <v>9</v>
-      </c>
-      <c r="G31" s="25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="25">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="25">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G40" s="26"/>
-    </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="H42" s="26"/>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="26"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="5">
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
-    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75EF582-CC88-40FD-A68C-9579BA74413F}">
-  <dimension ref="D3:O15"/>
+  <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="3"/>
-    </row>
-    <row r="5" spans="4:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="D5" s="31" t="s">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="4:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="D6" s="33" t="s">
+      <c r="C2" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="33"/>
-    </row>
-    <row r="7" spans="4:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="D7" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="4:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="D8" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="4:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="D9" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="4:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="D10" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="4:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="33" t="s">
+      <c r="C3" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="4:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="D12" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="D13" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="35"/>
-    </row>
-    <row r="14" spans="4:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="D14" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" spans="4:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="D15" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="35"/>
+      <c r="C8" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="B12" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="44"/>
+    </row>
+    <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="2:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="B14" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2929,7 +2581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEDC950-AA2F-4131-8934-AB2918395EB7}">
   <dimension ref="A5:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2945,267 +2597,267 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>116</v>
+      <c r="B5" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="38">
+      <c r="B6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="34">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="40">
+      <c r="B7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="36">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="40">
+      <c r="A8" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="36">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="40">
+      <c r="B11" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="36">
         <v>10000</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="40">
+      <c r="B12" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="36">
         <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="40">
+      <c r="B13" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="36">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="40">
+      <c r="B14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="36">
         <v>1000000</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="40">
+      <c r="B17" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="36">
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="40">
+      <c r="A18" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="36">
         <v>100000</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="40">
+      <c r="B19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="36">
         <v>10000</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="40">
+      <c r="B22" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="40">
+      <c r="B23" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="36">
         <v>100000</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="40">
+      <c r="A24" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="36">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="42">
+      <c r="A27" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="38">
         <v>3000</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="40">
+      <c r="A28" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="36">
         <v>3000</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B29" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="39">
+      <c r="A29" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="35">
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="40">
+      <c r="A32" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="36">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="44">
+      <c r="A33" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="40">
         <v>1</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="40">
+      <c r="B36" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="40">
+      <c r="B37" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="36">
         <v>10000</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="40">
+      <c r="B38" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="36">
         <v>10000</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="40">
+      <c r="A39" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="36">
         <v>100</v>
       </c>
     </row>
@@ -3231,14 +2883,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>127</v>
+      <c r="B4" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3246,10 +2898,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3257,10 +2909,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3268,10 +2920,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3279,10 +2931,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3290,10 +2942,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3301,10 +2953,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3312,10 +2964,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3323,10 +2975,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3334,10 +2986,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3345,10 +2997,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3356,10 +3008,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3367,10 +3019,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +3545,7 @@
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
       <c r="D42" s="16" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E42" s="17"/>
     </row>
@@ -4869,8 +4521,8 @@
         <v>32</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="46" t="s">
-        <v>153</v>
+      <c r="D13" s="42" t="s">
+        <v>122</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -4976,7 +4628,7 @@
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="E21" s="17"/>
     </row>
@@ -5112,11 +4764,11 @@
     <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="46" t="s">
-        <v>153</v>
+      <c r="D34" s="42" t="s">
+        <v>122</v>
       </c>
       <c r="E34" s="7"/>
     </row>
@@ -5250,18 +4902,18 @@
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E44" s="17"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="46" t="s">
-        <v>153</v>
+      <c r="D52" s="42" t="s">
+        <v>122</v>
       </c>
       <c r="E52" s="7"/>
     </row>
@@ -5381,7 +5033,7 @@
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
       <c r="D61" s="16" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E61" s="17"/>
     </row>
@@ -5517,11 +5169,11 @@
     <row r="73" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C74" s="6"/>
-      <c r="D74" s="46" t="s">
-        <v>153</v>
+      <c r="D74" s="42" t="s">
+        <v>122</v>
       </c>
       <c r="E74" s="7"/>
     </row>
@@ -5627,18 +5279,18 @@
       <c r="B82" s="14"/>
       <c r="C82" s="15"/>
       <c r="D82" s="16" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E82" s="17"/>
     </row>
     <row r="83" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C84" s="6"/>
-      <c r="D84" s="46" t="s">
-        <v>153</v>
+      <c r="D84" s="42" t="s">
+        <v>122</v>
       </c>
       <c r="E84" s="7"/>
     </row>
@@ -6012,11 +5664,11 @@
     <row r="124" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C125" s="6"/>
-      <c r="D125" s="46" t="s">
-        <v>153</v>
+      <c r="D125" s="42" t="s">
+        <v>122</v>
       </c>
       <c r="E125" s="7"/>
     </row>
@@ -6122,7 +5774,7 @@
       <c r="B133" s="14"/>
       <c r="C133" s="15"/>
       <c r="D133" s="16" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E133" s="17"/>
     </row>

--- a/ProgettoDB/res/tables/MaleniaData.xlsx
+++ b/ProgettoDB/res/tables/MaleniaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Hotel-Malenia\ProgettoDB\res\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBB0E3E-8B31-405E-AC2E-A7B5DF340F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48BC325-AEC1-4C6E-B2A5-F617C0D9BE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1E9E1B00-858F-4184-A9F3-6F302A51F4E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1E9E1B00-858F-4184-A9F3-6F302A51F4E6}"/>
   </bookViews>
   <sheets>
     <sheet name="prezziHotel" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="145">
   <si>
     <t>Concetto</t>
   </si>
@@ -502,9 +502,6 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>Selezione</t>
-  </si>
-  <si>
     <t>Effettuazione</t>
   </si>
   <si>
@@ -997,6 +994,9 @@
   </si>
   <si>
     <t>All-inclusive (ALI)</t>
+  </si>
+  <si>
+    <t>Tipologia Soggiorno</t>
   </si>
 </sst>
 </file>
@@ -1336,21 +1336,6 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
@@ -1524,16 +1509,21 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1592,6 +1582,16 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1839,34 +1839,34 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{941C4DBF-D34A-46B4-B864-22D8371CC577}" name="Tabella5" displayName="Tabella5" ref="B16:C20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{941C4DBF-D34A-46B4-B864-22D8371CC577}" name="Tabella5" displayName="Tabella5" ref="B16:C20" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="B16:C20" xr:uid="{941C4DBF-D34A-46B4-B864-22D8371CC577}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FB130275-AA60-41A0-AB71-CF3DBCC02329}" name="SERVIZI BENESSERE" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CF2B0D29-9BA0-45A3-9068-17D76570C828}" name="TARIFFE" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{FB130275-AA60-41A0-AB71-CF3DBCC02329}" name="SERVIZI BENESSERE" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{CF2B0D29-9BA0-45A3-9068-17D76570C828}" name="TARIFFE" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7F890F25-0280-4E3A-8749-08A52ED362D7}" name="Tabella4" displayName="Tabella4" ref="B24:C28" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7F890F25-0280-4E3A-8749-08A52ED362D7}" name="Tabella4" displayName="Tabella4" ref="B24:C28" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="B24:C28" xr:uid="{7F890F25-0280-4E3A-8749-08A52ED362D7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A750A1CF-F4B8-4682-A3AD-89400730DD5C}" name="SERVIZI HOTEL" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{6D158294-0281-4EF0-A49E-C2BBC33D47C5}" name="TARIFFE" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A750A1CF-F4B8-4682-A3AD-89400730DD5C}" name="SERVIZI HOTEL" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{6D158294-0281-4EF0-A49E-C2BBC33D47C5}" name="TARIFFE" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}" name="Tabella17" displayName="Tabella17" ref="B1:D14" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}" name="Tabella17" displayName="Tabella17" ref="B1:D14" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
   <autoFilter ref="B1:D14" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{CE1965F7-5B83-469B-BAE1-B40A3E6BABF7}" name="TERMINE" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4F3175D3-AC56-4BA9-8783-0AE12AF49FAA}" name="BREVE DESCRIZIONE" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{E69F55AF-1F81-4B44-9386-8AD677F0DB13}" name="SINONIMI" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CE1965F7-5B83-469B-BAE1-B40A3E6BABF7}" name="TERMINE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4F3175D3-AC56-4BA9-8783-0AE12AF49FAA}" name="BREVE DESCRIZIONE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E69F55AF-1F81-4B44-9386-8AD677F0DB13}" name="SINONIMI" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2451,7 +2451,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="29"/>
     </row>
@@ -2480,13 +2480,13 @@
     </row>
     <row r="6" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>138</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -2494,7 +2494,7 @@
         <v>77</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="3"/>
@@ -2507,7 +2507,7 @@
         <v>78</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
@@ -2532,36 +2532,36 @@
     </row>
     <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>141</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D12" s="44"/>
     </row>
     <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13" s="31"/>
     </row>
     <row r="14" spans="2:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>84</v>
@@ -2579,10 +2579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEDC950-AA2F-4131-8934-AB2918395EB7}">
-  <dimension ref="A5:E40"/>
+  <dimension ref="A5:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,7 +2596,7 @@
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>0</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>16</v>
       </c>
@@ -2618,9 +2618,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>5</v>
@@ -2629,239 +2629,220 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" s="36">
         <v>10000</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="36">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="36">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="36">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="36">
+        <v>100000</v>
+      </c>
+    </row>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C17" s="36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="36">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="36">
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="36">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="35" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C22" s="36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="38">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="36">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="36">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="38">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="36">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="35">
+      <c r="B30" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="36">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="35" t="s">
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="40">
-        <v>1</v>
-      </c>
+      <c r="B31" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="3"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="36">
+        <v>10000</v>
+      </c>
+    </row>
     <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C36" s="36">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C37" s="36">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="36">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="36">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2884,13 +2865,13 @@
   <sheetData>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="41" t="s">
         <v>95</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2898,10 +2879,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>97</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2909,10 +2890,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>99</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2920,10 +2901,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2931,10 +2912,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2942,10 +2923,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>105</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2953,10 +2934,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>107</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2964,10 +2945,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2975,10 +2956,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2986,10 +2967,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2997,10 +2978,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3008,10 +2989,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3019,10 +3000,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>118</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3545,7 +3526,7 @@
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
       <c r="D42" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42" s="17"/>
     </row>
@@ -4522,7 +4503,7 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -4628,7 +4609,7 @@
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" s="17"/>
     </row>
@@ -4764,11 +4745,11 @@
     <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="7"/>
     </row>
@@ -4902,18 +4883,18 @@
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E44" s="17"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E52" s="7"/>
     </row>
@@ -5033,7 +5014,7 @@
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
       <c r="D61" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E61" s="17"/>
     </row>
@@ -5169,11 +5150,11 @@
     <row r="73" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E74" s="7"/>
     </row>
@@ -5279,18 +5260,18 @@
       <c r="B82" s="14"/>
       <c r="C82" s="15"/>
       <c r="D82" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E82" s="17"/>
     </row>
     <row r="83" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E84" s="7"/>
     </row>
@@ -5664,11 +5645,11 @@
     <row r="124" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E125" s="7"/>
     </row>
@@ -5774,7 +5755,7 @@
       <c r="B133" s="14"/>
       <c r="C133" s="15"/>
       <c r="D133" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E133" s="17"/>
     </row>

--- a/ProgettoDB/res/tables/MaleniaData.xlsx
+++ b/ProgettoDB/res/tables/MaleniaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Hotel-Malenia\ProgettoDB\res\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48BC325-AEC1-4C6E-B2A5-F617C0D9BE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B05FEB9-19B5-4342-8D4C-D966E3E9A55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1E9E1B00-858F-4184-A9F3-6F302A51F4E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1E9E1B00-858F-4184-A9F3-6F302A51F4E6}"/>
   </bookViews>
   <sheets>
     <sheet name="prezziHotel" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="146">
   <si>
     <t>Concetto</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>OP 11 -  Modifica dei listini</t>
-  </si>
-  <si>
-    <t>OP 12 - Generazione documento con informazione relative</t>
   </si>
   <si>
     <t>OP 1 - Registrazione di un nuovo cliente</t>
@@ -304,7 +301,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 6L -&gt; 1.200 al giorno</t>
+      <t>: 3L + 6S -&gt; 1.900 al giorno</t>
     </r>
   </si>
   <si>
@@ -327,7 +324,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 3L + 6S -&gt; 1.900 al giorno</t>
+      <t>: 2L + 3S -&gt; 80 al giorno</t>
     </r>
   </si>
   <si>
@@ -350,8 +347,423 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 2L + 3S -&gt; 80 al giorno</t>
+      <t>: 7S -&gt; 140 al giorno</t>
     </r>
+  </si>
+  <si>
+    <t>PACCHETTO VACANZE</t>
+  </si>
+  <si>
+    <t>COSTO SETTIMANALE - SINGOLA</t>
+  </si>
+  <si>
+    <t>COSTO SETTIMANALE - DOPPIA</t>
+  </si>
+  <si>
+    <t>COSTO SETTIMANALE - FAMILIARE</t>
+  </si>
+  <si>
+    <t>BED AND BREAKFAST</t>
+  </si>
+  <si>
+    <t>PENSIONE COMPLETA</t>
+  </si>
+  <si>
+    <t>ALL - INCLUSIVE</t>
+  </si>
+  <si>
+    <t>COSTO GIORNALIERO - SINGOLA</t>
+  </si>
+  <si>
+    <t>COSTO GIORNALIERO - DOPPIA</t>
+  </si>
+  <si>
+    <t>COSTO GIORNALIERO - FAMILIARE</t>
+  </si>
+  <si>
+    <t>SERVIZI HOTEL</t>
+  </si>
+  <si>
+    <t>Lettino Spiaggia</t>
+  </si>
+  <si>
+    <t>Palestra</t>
+  </si>
+  <si>
+    <t>Casinò</t>
+  </si>
+  <si>
+    <t>Parcheggio</t>
+  </si>
+  <si>
+    <t>SERVIZI BENESSERE</t>
+  </si>
+  <si>
+    <t>TARIFFE</t>
+  </si>
+  <si>
+    <t>Massaggio Normale</t>
+  </si>
+  <si>
+    <t>Fango con doccia termale</t>
+  </si>
+  <si>
+    <t>Bagno termale</t>
+  </si>
+  <si>
+    <t>Bagno con idromassaggio</t>
+  </si>
+  <si>
+    <t>TERMINE</t>
+  </si>
+  <si>
+    <t>BREVE DESCRIZIONE</t>
+  </si>
+  <si>
+    <t>SINONIMI</t>
+  </si>
+  <si>
+    <t>Colui che risiede nella struttura 
+temporaneamente a seguito di un pagamento.</t>
+  </si>
+  <si>
+    <t>Turista</t>
+  </si>
+  <si>
+    <t>Membro del personale</t>
+  </si>
+  <si>
+    <t>Colui che assiste i clienti per tutta la durata del soggiorno.</t>
+  </si>
+  <si>
+    <t>Membro dello staff, Addetto</t>
+  </si>
+  <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>Occupazione di un addetto dell'hotel all'interno della struttura.</t>
+  </si>
+  <si>
+    <t>Mansione</t>
+  </si>
+  <si>
+    <t>Resoconto di pagamento</t>
+  </si>
+  <si>
+    <t>Permanenza temporanea in un luogo.</t>
+  </si>
+  <si>
+    <t>Servizio</t>
+  </si>
+  <si>
+    <t>Prestazione da parte di un membro del 
+personale nei confronti di un cliente.</t>
+  </si>
+  <si>
+    <t>Prestazione</t>
+  </si>
+  <si>
+    <t>Stanza familiare</t>
+  </si>
+  <si>
+    <t>Stanza della struttura in grado di accogliere un nucleo familiare di 4 oppure 5 persone.</t>
+  </si>
+  <si>
+    <t>Piano tariffario dell'hotel che garantisce al cliente la permanenza nella struttura, la consumazione gratuita dei 3 pasti principali della giornata e una base di servizi che normalmente sarebbero a pagamento.</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Effettuazione</t>
+  </si>
+  <si>
+    <t>Accesso</t>
+  </si>
+  <si>
+    <t>Erogazione</t>
+  </si>
+  <si>
+    <t>Condizionamento</t>
+  </si>
+  <si>
+    <t>Codice</t>
+  </si>
+  <si>
+    <t>Operazione</t>
+  </si>
+  <si>
+    <t>Frequenza</t>
+  </si>
+  <si>
+    <t>Registrazione di un nuovo cliente</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Check-out di un ciente</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Effetuare una prenotazione</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Cancellare una prenotazione</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualizzazione di una prenotazione</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Addebitazione costi di un servizio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Lettura di una scheda di un cliente</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a settimana</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualizzazione acquisti di un cliente</t>
+  </si>
+  <si>
+    <t>Visualizzazione clienti</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualizzazione clienti con filtri</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al mese</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all'anno</t>
+    </r>
+  </si>
+  <si>
+    <t>OP 8 - Visualizzazione acquisti</t>
+  </si>
+  <si>
+    <t>OP 4 - Cancellare prenotazione</t>
+  </si>
+  <si>
+    <t>SENZA RIDONDANZA (resoconto)</t>
   </si>
   <si>
     <r>
@@ -373,461 +785,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 7S -&gt; 140 al giorno</t>
+      <t>: 102L + 3S -&gt; 1.080 al giorno</t>
     </r>
-  </si>
-  <si>
-    <t>PACCHETTO VACANZE</t>
-  </si>
-  <si>
-    <t>COSTO SETTIMANALE - SINGOLA</t>
-  </si>
-  <si>
-    <t>COSTO SETTIMANALE - DOPPIA</t>
-  </si>
-  <si>
-    <t>COSTO SETTIMANALE - FAMILIARE</t>
-  </si>
-  <si>
-    <t>BED AND BREAKFAST</t>
-  </si>
-  <si>
-    <t>PENSIONE COMPLETA</t>
-  </si>
-  <si>
-    <t>ALL - INCLUSIVE</t>
-  </si>
-  <si>
-    <t>COSTO GIORNALIERO - SINGOLA</t>
-  </si>
-  <si>
-    <t>COSTO GIORNALIERO - DOPPIA</t>
-  </si>
-  <si>
-    <t>COSTO GIORNALIERO - FAMILIARE</t>
-  </si>
-  <si>
-    <t>SERVIZI HOTEL</t>
-  </si>
-  <si>
-    <t>Lettino Spiaggia</t>
-  </si>
-  <si>
-    <t>Palestra</t>
-  </si>
-  <si>
-    <t>Casinò</t>
-  </si>
-  <si>
-    <t>Parcheggio</t>
-  </si>
-  <si>
-    <t>SERVIZI BENESSERE</t>
-  </si>
-  <si>
-    <t>TARIFFE</t>
-  </si>
-  <si>
-    <t>Massaggio Normale</t>
-  </si>
-  <si>
-    <t>Fango con doccia termale</t>
-  </si>
-  <si>
-    <t>Bagno termale</t>
-  </si>
-  <si>
-    <t>Bagno con idromassaggio</t>
-  </si>
-  <si>
-    <t>TERMINE</t>
-  </si>
-  <si>
-    <t>BREVE DESCRIZIONE</t>
-  </si>
-  <si>
-    <t>SINONIMI</t>
-  </si>
-  <si>
-    <t>Colui che risiede nella struttura 
-temporaneamente a seguito di un pagamento.</t>
-  </si>
-  <si>
-    <t>Turista</t>
-  </si>
-  <si>
-    <t>Membro del personale</t>
-  </si>
-  <si>
-    <t>Colui che assiste i clienti per tutta la durata del soggiorno.</t>
-  </si>
-  <si>
-    <t>Membro dello staff, Addetto</t>
-  </si>
-  <si>
-    <t>Ruolo</t>
-  </si>
-  <si>
-    <t>Occupazione di un addetto dell'hotel all'interno della struttura.</t>
-  </si>
-  <si>
-    <t>Mansione</t>
-  </si>
-  <si>
-    <t>Resoconto di pagamento</t>
-  </si>
-  <si>
-    <t>Permanenza temporanea in un luogo.</t>
-  </si>
-  <si>
-    <t>Servizio</t>
-  </si>
-  <si>
-    <t>Prestazione da parte di un membro del 
-personale nei confronti di un cliente.</t>
-  </si>
-  <si>
-    <t>Prestazione</t>
-  </si>
-  <si>
-    <t>Stanza familiare</t>
-  </si>
-  <si>
-    <t>Stanza della struttura in grado di accogliere un nucleo familiare di 4 oppure 5 persone.</t>
-  </si>
-  <si>
-    <t>Piano tariffario dell'hotel che garantisce al cliente la permanenza nella struttura, la consumazione gratuita dei 3 pasti principali della giornata e una base di servizi che normalmente sarebbero a pagamento.</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Effettuazione</t>
-  </si>
-  <si>
-    <t>Accesso</t>
-  </si>
-  <si>
-    <t>Addetto ai servizi</t>
-  </si>
-  <si>
-    <t>Erogazione</t>
-  </si>
-  <si>
-    <t>Servizio a pagamento</t>
-  </si>
-  <si>
-    <t>Servizio pulizia camere</t>
-  </si>
-  <si>
-    <t>Condizionamento</t>
-  </si>
-  <si>
-    <t>Codice</t>
-  </si>
-  <si>
-    <t>Operazione</t>
-  </si>
-  <si>
-    <t>Frequenza</t>
-  </si>
-  <si>
-    <t>Registrazione di un nuovo cliente</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Check-out di un ciente</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Effetuare una prenotazione</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Cancellare una prenotazione</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Visualizzazione di una prenotazione</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Addebitazione costi di un servizio</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Lettura di una scheda di un cliente</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a settimana</t>
-    </r>
-  </si>
-  <si>
-    <t>Visualizzazione acquisti di un cliente</t>
-  </si>
-  <si>
-    <t>Visualizzazione clienti</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Visualizzazione clienti con filtri</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al mese</t>
-    </r>
-  </si>
-  <si>
-    <t>Modifica dei listini</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all'anno</t>
-    </r>
-  </si>
-  <si>
-    <t>Generazione documento con informazioni relative</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a settimana</t>
-    </r>
-  </si>
-  <si>
-    <t>OP 8 - Visualizzazione acquisti</t>
-  </si>
-  <si>
-    <t>OP 4 - Cancellare prenotazione</t>
-  </si>
-  <si>
-    <t>SENZA RIDONDANZA (resoconto)</t>
   </si>
   <si>
     <r>
@@ -849,7 +808,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 102L + 3S -&gt; 1.080 al giorno</t>
+      <t>: 103L + 4S -&gt; 565 al giorno</t>
     </r>
   </si>
   <si>
@@ -872,8 +831,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 3L + 4S -&gt; 65 al giorno</t>
+      <t>: 106L -&gt; 3.200 al giorno</t>
     </r>
+  </si>
+  <si>
+    <t>OP 5 - Visualizzare prenotazione</t>
   </si>
   <si>
     <r>
@@ -895,8 +857,68 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 103L + 4S -&gt; 565 al giorno</t>
+      <t>: 105L -&gt; 1.050 a settimana</t>
     </r>
+  </si>
+  <si>
+    <t>OP 7 - Lettura scheda cliente</t>
+  </si>
+  <si>
+    <t>OP 12 - Generazione documento</t>
+  </si>
+  <si>
+    <t>Oggetto che riporta i dati personali e il resoconto di un cliente.</t>
+  </si>
+  <si>
+    <t>Quantità di denaro necessaria per poter usufruire di un eventuale servizio.</t>
+  </si>
+  <si>
+    <t>Quantità di denaro rappresentante il debito del cliente nei confronti dell'hotel.</t>
+  </si>
+  <si>
+    <t>Villeggiatura, Vacanza</t>
+  </si>
+  <si>
+    <t>Piano tariffario dell'hotel che garantisce al cliente la permanenza nella struttura e la consumazione gratuita dei 3 pasti principali della giornata.</t>
+  </si>
+  <si>
+    <t>Bed&amp;Breakfast (BB)</t>
+  </si>
+  <si>
+    <t>Piano tariffario</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Prezzo, Tariffa</t>
+  </si>
+  <si>
+    <t>Piano tariffario dell'hotel che garantisce la permanenza nella struttura e la colazione della mattina seguente, questo fino al termine del periodo di soggiorno.</t>
+  </si>
+  <si>
+    <t>Offerta data ai clienti per poter usufruire, secondo varie possibilità, dei servizi offerti dall'hotel. Il piano tariffario varia e di conseguenza ne varia anche il suo costo.</t>
+  </si>
+  <si>
+    <t>Pacchetto vacanza.</t>
+  </si>
+  <si>
+    <t>Pensiona completa (PC)</t>
+  </si>
+  <si>
+    <t>All-inclusive (ALI)</t>
+  </si>
+  <si>
+    <t>Tipologia Soggiorno</t>
+  </si>
+  <si>
+    <t>Coordinazione</t>
+  </si>
+  <si>
+    <t>Dipendente</t>
+  </si>
+  <si>
+    <t>Modifica delle tariffe</t>
   </si>
   <si>
     <r>
@@ -918,11 +940,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 106L -&gt; 3.200 al giorno</t>
+      <t>: 4L + 7S -&gt; 1.800 al giorno</t>
     </r>
-  </si>
-  <si>
-    <t>OP 5 - Visualizzare prenotazione</t>
   </si>
   <si>
     <r>
@@ -944,59 +963,103 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 105L -&gt; 1.050 a settimana</t>
+      <t>: 4L + 7S -&gt; 90 al giorno</t>
     </r>
   </si>
   <si>
-    <t>OP 7 - Lettura scheda cliente</t>
-  </si>
-  <si>
-    <t>OP 12 - Generazione documento</t>
-  </si>
-  <si>
-    <t>Oggetto che riporta i dati personali e il resoconto di un cliente.</t>
-  </si>
-  <si>
-    <t>Quantità di denaro necessaria per poter usufruire di un eventuale servizio.</t>
-  </si>
-  <si>
-    <t>Quantità di denaro rappresentante il debito del cliente nei confronti dell'hotel.</t>
-  </si>
-  <si>
-    <t>Villeggiatura, Vacanza</t>
-  </si>
-  <si>
-    <t>Piano tariffario dell'hotel che garantisce al cliente la permanenza nella struttura e la consumazione gratuita dei 3 pasti principali della giornata.</t>
-  </si>
-  <si>
-    <t>Bed&amp;Breakfast (BB)</t>
-  </si>
-  <si>
-    <t>Piano tariffario</t>
-  </si>
-  <si>
-    <t>Costo</t>
-  </si>
-  <si>
-    <t>Prezzo, Tariffa</t>
-  </si>
-  <si>
-    <t>Piano tariffario dell'hotel che garantisce la permanenza nella struttura e la colazione della mattina seguente, questo fino al termine del periodo di soggiorno.</t>
-  </si>
-  <si>
-    <t>Offerta data ai clienti per poter usufruire, secondo varie possibilità, dei servizi offerti dall'hotel. Il piano tariffario varia e di conseguenza ne varia anche il suo costo.</t>
-  </si>
-  <si>
-    <t>Pacchetto vacanza.</t>
-  </si>
-  <si>
-    <t>Pensiona completa (PC)</t>
-  </si>
-  <si>
-    <t>All-inclusive (ALI)</t>
-  </si>
-  <si>
-    <t>Tipologia Soggiorno</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Totale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 7L -&gt; 1.400 al giorno</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Totale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 4L + 3S -&gt; 500 al giorno</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Totale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 36L -&gt; 360 a settimana</t>
+    </r>
+  </si>
+  <si>
+    <t>OP 11 -  Modifica delle tariffe</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Totale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 221S -&gt; 442 all'anno</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1066,7 +1129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1214,9 +1277,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thick">
@@ -1226,12 +1317,14 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thick">
+      <right style="thin">
         <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,7 +1332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1308,13 +1401,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1326,6 +1413,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2193,21 +2285,21 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="E4" s="39" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="25">
         <v>400</v>
@@ -2221,7 +2313,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="25">
         <v>500</v>
@@ -2235,7 +2327,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="25">
         <v>900</v>
@@ -2249,21 +2341,21 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="39" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C10" s="25">
         <v>60</v>
@@ -2277,7 +2369,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="25">
         <v>90</v>
@@ -2291,7 +2383,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" s="25">
         <v>150</v>
@@ -2308,15 +2400,15 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="25">
         <v>20</v>
@@ -2324,7 +2416,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C18" s="25">
         <v>40</v>
@@ -2332,7 +2424,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="25">
         <v>15</v>
@@ -2340,7 +2432,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="25">
         <v>25</v>
@@ -2351,16 +2443,16 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E24" s="26"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="25">
         <v>8</v>
@@ -2368,7 +2460,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="25">
         <v>5</v>
@@ -2376,7 +2468,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="25">
         <v>10</v>
@@ -2384,7 +2476,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="25">
         <v>8</v>
@@ -2426,13 +2518,13 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -2440,10 +2532,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -2451,120 +2543,120 @@
         <v>11</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>71</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>73</v>
       </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>74</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>79</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D10" s="31"/>
     </row>
     <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>140</v>
+        <v>127</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>131</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="44"/>
+        <v>126</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D13" s="31"/>
     </row>
     <row r="14" spans="2:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D14" s="31"/>
     </row>
@@ -2579,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEDC950-AA2F-4131-8934-AB2918395EB7}">
-  <dimension ref="A5:G38"/>
+  <dimension ref="A5:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2604,245 +2696,221 @@
         <v>1</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="43" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="44">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="36">
+      <c r="A7" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="41">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="41">
+        <v>30</v>
+      </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="41">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="41">
+        <v>10000</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="36">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="36">
-        <v>10000</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="36">
+      <c r="B12" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="41">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="41">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="36">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="36">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="36">
+      <c r="B17" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="41">
         <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="36">
+      <c r="B20" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="41">
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="36">
+      <c r="B21" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="41">
         <v>100000</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="36">
+      <c r="A22" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="41">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="38">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="41">
         <v>3000</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="36">
+      <c r="A26" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="41">
         <v>3000</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="35">
+      <c r="A27" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="42">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="36">
+      <c r="A30" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="41">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="36">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="36">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2851,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AE333C-EDBA-460D-BA42-77A07611453B}">
-  <dimension ref="B4:D16"/>
+  <dimension ref="B4:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,14 +2932,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>95</v>
+      <c r="B4" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2879,10 +2947,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2890,10 +2958,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2901,10 +2969,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2912,10 +2980,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2923,10 +2991,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2934,10 +3002,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2945,10 +3013,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2956,10 +3024,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2967,10 +3035,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2978,10 +3046,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2989,21 +3057,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>12</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3014,17 +3071,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC43067-F894-4C47-922B-28D91B34693D}">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N112" sqref="N112"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="32.140625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
@@ -3033,7 +3090,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -3055,7 +3112,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>5</v>
@@ -3070,7 +3127,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>9</v>
@@ -3085,7 +3142,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>5</v>
@@ -3100,7 +3157,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>9</v>
@@ -3115,7 +3172,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>5</v>
@@ -3161,14 +3218,14 @@
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3191,7 +3248,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>5</v>
@@ -3236,7 +3293,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>9</v>
@@ -3251,7 +3308,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>5</v>
@@ -3268,7 +3325,7 @@
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="17"/>
     </row>
@@ -3297,7 +3354,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>5</v>
@@ -3320,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -3339,7 +3396,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>9</v>
@@ -3353,7 +3410,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>5</v>
@@ -3397,7 +3454,7 @@
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="E31" s="17"/>
     </row>
@@ -3426,7 +3483,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>5</v>
@@ -3449,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3468,7 +3525,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>9</v>
@@ -3482,7 +3539,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>5</v>
@@ -3526,7 +3583,7 @@
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
       <c r="D42" s="16" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="E42" s="17"/>
     </row>
@@ -3536,35 +3593,49 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
-    <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7"/>
+    </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="7"/>
+      <c r="B52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>3</v>
+      <c r="B53" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D54" s="12">
         <v>1</v>
@@ -3575,10 +3646,10 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D55" s="12">
         <v>1</v>
@@ -3589,10 +3660,10 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D56" s="12">
         <v>1</v>
@@ -3603,10 +3674,10 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
@@ -3617,10 +3688,10 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D58" s="12">
         <v>1</v>
@@ -3647,7 +3718,7 @@
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
       <c r="D60" s="16" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="E60" s="17"/>
     </row>
@@ -3676,7 +3747,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>5</v>
@@ -3699,7 +3770,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
@@ -3718,7 +3789,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>9</v>
@@ -3732,7 +3803,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>5</v>
@@ -3776,7 +3847,7 @@
       <c r="B71" s="14"/>
       <c r="C71" s="15"/>
       <c r="D71" s="16" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="E71" s="17"/>
     </row>
@@ -3805,7 +3876,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>5</v>
@@ -3847,7 +3918,7 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>9</v>
@@ -3861,7 +3932,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>5</v>
@@ -3877,7 +3948,7 @@
       <c r="B80" s="14"/>
       <c r="C80" s="15"/>
       <c r="D80" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E80" s="17"/>
     </row>
@@ -3906,7 +3977,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>5</v>
@@ -3948,7 +4019,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C87" s="12" t="s">
         <v>9</v>
@@ -3962,7 +4033,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>5</v>
@@ -3976,72 +4047,72 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="12">
+        <v>1</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="12">
+      <c r="C90" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="12">
         <v>30</v>
       </c>
-      <c r="E89" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E90" s="17"/>
-    </row>
-    <row r="91" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="18" t="s">
+      <c r="E90" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E91" s="17"/>
+    </row>
+    <row r="92" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="7"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B93" s="8" t="s">
+      <c r="C93" s="19"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="9" t="s">
+      <c r="C94" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E94" s="10" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B94" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="12">
-        <v>1</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D95" s="12">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>7</v>
@@ -4049,10 +4120,10 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D96" s="12">
         <v>1000</v>
@@ -4061,13 +4132,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="14"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E97" s="17"/>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="17"/>
     </row>
     <row r="100" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
@@ -4094,7 +4179,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>5</v>
@@ -4136,7 +4221,7 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>9</v>
@@ -4150,7 +4235,7 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>5</v>
@@ -4166,14 +4251,14 @@
       <c r="B108" s="14"/>
       <c r="C108" s="15"/>
       <c r="D108" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E108" s="17"/>
     </row>
     <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="18" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -4195,7 +4280,7 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>5</v>
@@ -4209,7 +4294,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="11" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>9</v>
@@ -4223,7 +4308,7 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="11" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>5</v>
@@ -4235,114 +4320,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="14"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E115" s="17"/>
-    </row>
-    <row r="116" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="7"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="12">
-        <v>1</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="12">
-        <v>1</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B121" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="12">
-        <v>1</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="12">
-        <v>1</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="12">
-        <v>1</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="14"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E124" s="17"/>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="12">
+        <v>100</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="12">
+        <v>100</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="14"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E117" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4370,7 +4382,7 @@
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -4392,7 +4404,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>5</v>
@@ -4406,7 +4418,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>9</v>
@@ -4434,7 +4446,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>9</v>
@@ -4448,7 +4460,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>5</v>
@@ -4492,18 +4504,18 @@
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6"/>
-      <c r="D13" s="42" t="s">
-        <v>121</v>
+      <c r="D13" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -4523,7 +4535,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>5</v>
@@ -4609,7 +4621,7 @@
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E21" s="17"/>
     </row>
@@ -4638,7 +4650,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>5</v>
@@ -4738,18 +4750,18 @@
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
       <c r="D32" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E32" s="17"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C34" s="6"/>
-      <c r="D34" s="42" t="s">
-        <v>121</v>
+      <c r="D34" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="E34" s="7"/>
     </row>
@@ -4769,7 +4781,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>5</v>
@@ -4883,18 +4895,18 @@
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E44" s="17"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C52" s="6"/>
-      <c r="D52" s="42" t="s">
-        <v>121</v>
+      <c r="D52" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="E52" s="7"/>
     </row>
@@ -4914,7 +4926,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>5</v>
@@ -5014,7 +5026,7 @@
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
       <c r="D61" s="16" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E61" s="17"/>
     </row>
@@ -5043,7 +5055,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>5</v>
@@ -5143,18 +5155,18 @@
       <c r="B72" s="14"/>
       <c r="C72" s="15"/>
       <c r="D72" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E72" s="17"/>
     </row>
     <row r="73" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C74" s="6"/>
-      <c r="D74" s="42" t="s">
-        <v>121</v>
+      <c r="D74" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="E74" s="7"/>
     </row>
@@ -5174,7 +5186,7 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>5</v>
@@ -5260,18 +5272,18 @@
       <c r="B82" s="14"/>
       <c r="C82" s="15"/>
       <c r="D82" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E82" s="17"/>
     </row>
     <row r="83" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C84" s="6"/>
-      <c r="D84" s="42" t="s">
-        <v>121</v>
+      <c r="D84" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="E84" s="7"/>
     </row>
@@ -5291,7 +5303,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>5</v>
@@ -5391,7 +5403,7 @@
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
       <c r="D93" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E93" s="17"/>
     </row>
@@ -5420,7 +5432,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>5</v>
@@ -5464,7 +5476,7 @@
       <c r="B107" s="14"/>
       <c r="C107" s="15"/>
       <c r="D107" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E107" s="17"/>
     </row>
@@ -5493,7 +5505,7 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>5</v>
@@ -5565,7 +5577,7 @@
       <c r="B116" s="14"/>
       <c r="C116" s="15"/>
       <c r="D116" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E116" s="17"/>
     </row>
@@ -5594,7 +5606,7 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>5</v>
@@ -5638,18 +5650,18 @@
       <c r="B123" s="14"/>
       <c r="C123" s="15"/>
       <c r="D123" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E123" s="17"/>
     </row>
     <row r="124" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C125" s="6"/>
-      <c r="D125" s="42" t="s">
-        <v>121</v>
+      <c r="D125" s="36" t="s">
+        <v>113</v>
       </c>
       <c r="E125" s="7"/>
     </row>
@@ -5669,7 +5681,7 @@
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C127" s="12" t="s">
         <v>5</v>
@@ -5755,7 +5767,7 @@
       <c r="B133" s="14"/>
       <c r="C133" s="15"/>
       <c r="D133" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E133" s="17"/>
     </row>

--- a/ProgettoDB/res/tables/MaleniaData.xlsx
+++ b/ProgettoDB/res/tables/MaleniaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Hotel-Malenia\ProgettoDB\res\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B05FEB9-19B5-4342-8D4C-D966E3E9A55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D108D262-4FB4-46BF-93FB-B6BABA7F66F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1E9E1B00-858F-4184-A9F3-6F302A51F4E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{1E9E1B00-858F-4184-A9F3-6F302A51F4E6}"/>
   </bookViews>
   <sheets>
     <sheet name="prezziHotel" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="136">
   <si>
     <t>Concetto</t>
   </si>
@@ -66,9 +66,6 @@
     <t>L</t>
   </si>
   <si>
-    <t>Visualizzazione</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -81,15 +78,6 @@
     <t>Identificazione</t>
   </si>
   <si>
-    <t>Clienti</t>
-  </si>
-  <si>
-    <t>Gestione</t>
-  </si>
-  <si>
-    <t>Listini</t>
-  </si>
-  <si>
     <t>Cliente</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
   </si>
   <si>
     <t>OP 10 - Visualizzazione clienti con filtri</t>
-  </si>
-  <si>
-    <t>OP 11 -  Modifica dei listini</t>
   </si>
   <si>
     <t>OP 1 - Registrazione di un nuovo cliente</t>
@@ -163,7 +148,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 21S -&gt; 21 all'anno</t>
+      <t>: 5L -&gt; 50 a settimana</t>
     </r>
   </si>
   <si>
@@ -186,7 +171,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 5L -&gt; 50 a settimana</t>
+      <t>: 5L -&gt; 5 al mese</t>
     </r>
   </si>
   <si>
@@ -209,7 +194,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 5L -&gt; 5 al mese</t>
+      <t>: 2.001L -&gt; 2.001.000 al giorno</t>
     </r>
   </si>
   <si>
@@ -232,7 +217,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 2.001L -&gt; 2.001.000 al giorno</t>
+      <t>: 2L + 3S -&gt; 80 al giorno</t>
     </r>
   </si>
   <si>
@@ -255,8 +240,480 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 35L -&gt; 350 a settimana</t>
+      <t>: 7S -&gt; 140 al giorno</t>
     </r>
+  </si>
+  <si>
+    <t>PACCHETTO VACANZE</t>
+  </si>
+  <si>
+    <t>COSTO SETTIMANALE - SINGOLA</t>
+  </si>
+  <si>
+    <t>COSTO SETTIMANALE - DOPPIA</t>
+  </si>
+  <si>
+    <t>COSTO SETTIMANALE - FAMILIARE</t>
+  </si>
+  <si>
+    <t>BED AND BREAKFAST</t>
+  </si>
+  <si>
+    <t>PENSIONE COMPLETA</t>
+  </si>
+  <si>
+    <t>ALL - INCLUSIVE</t>
+  </si>
+  <si>
+    <t>COSTO GIORNALIERO - SINGOLA</t>
+  </si>
+  <si>
+    <t>COSTO GIORNALIERO - DOPPIA</t>
+  </si>
+  <si>
+    <t>COSTO GIORNALIERO - FAMILIARE</t>
+  </si>
+  <si>
+    <t>SERVIZI HOTEL</t>
+  </si>
+  <si>
+    <t>Lettino Spiaggia</t>
+  </si>
+  <si>
+    <t>Palestra</t>
+  </si>
+  <si>
+    <t>Casinò</t>
+  </si>
+  <si>
+    <t>Parcheggio</t>
+  </si>
+  <si>
+    <t>SERVIZI BENESSERE</t>
+  </si>
+  <si>
+    <t>TARIFFE</t>
+  </si>
+  <si>
+    <t>Massaggio Normale</t>
+  </si>
+  <si>
+    <t>Fango con doccia termale</t>
+  </si>
+  <si>
+    <t>Bagno termale</t>
+  </si>
+  <si>
+    <t>Bagno con idromassaggio</t>
+  </si>
+  <si>
+    <t>TERMINE</t>
+  </si>
+  <si>
+    <t>BREVE DESCRIZIONE</t>
+  </si>
+  <si>
+    <t>SINONIMI</t>
+  </si>
+  <si>
+    <t>Colui che risiede nella struttura 
+temporaneamente a seguito di un pagamento.</t>
+  </si>
+  <si>
+    <t>Turista</t>
+  </si>
+  <si>
+    <t>Membro del personale</t>
+  </si>
+  <si>
+    <t>Colui che assiste i clienti per tutta la durata del soggiorno.</t>
+  </si>
+  <si>
+    <t>Membro dello staff, Addetto</t>
+  </si>
+  <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>Occupazione di un addetto dell'hotel all'interno della struttura.</t>
+  </si>
+  <si>
+    <t>Mansione</t>
+  </si>
+  <si>
+    <t>Resoconto di pagamento</t>
+  </si>
+  <si>
+    <t>Permanenza temporanea in un luogo.</t>
+  </si>
+  <si>
+    <t>Servizio</t>
+  </si>
+  <si>
+    <t>Prestazione da parte di un membro del 
+personale nei confronti di un cliente.</t>
+  </si>
+  <si>
+    <t>Prestazione</t>
+  </si>
+  <si>
+    <t>Stanza familiare</t>
+  </si>
+  <si>
+    <t>Stanza della struttura in grado di accogliere un nucleo familiare di 4 oppure 5 persone.</t>
+  </si>
+  <si>
+    <t>Piano tariffario dell'hotel che garantisce al cliente la permanenza nella struttura, la consumazione gratuita dei 3 pasti principali della giornata e una base di servizi che normalmente sarebbero a pagamento.</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Effettuazione</t>
+  </si>
+  <si>
+    <t>Accesso</t>
+  </si>
+  <si>
+    <t>Erogazione</t>
+  </si>
+  <si>
+    <t>Condizionamento</t>
+  </si>
+  <si>
+    <t>Codice</t>
+  </si>
+  <si>
+    <t>Operazione</t>
+  </si>
+  <si>
+    <t>Frequenza</t>
+  </si>
+  <si>
+    <t>Registrazione di un nuovo cliente</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Check-out di un ciente</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Effetuare una prenotazione</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Cancellare una prenotazione</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualizzazione di una prenotazione</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Addebitazione costi di un servizio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Lettura di una scheda di un cliente</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a settimana</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualizzazione acquisti di un cliente</t>
+  </si>
+  <si>
+    <t>Visualizzazione clienti</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualizzazione clienti con filtri</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al mese</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all'anno</t>
+    </r>
+  </si>
+  <si>
+    <t>OP 8 - Visualizzazione acquisti</t>
+  </si>
+  <si>
+    <t>OP 4 - Cancellare prenotazione</t>
+  </si>
+  <si>
+    <t>SENZA RIDONDANZA (resoconto)</t>
+  </si>
+  <si>
+    <t>OP 7 - Lettura scheda cliente</t>
+  </si>
+  <si>
+    <t>Oggetto che riporta i dati personali e il resoconto di un cliente.</t>
+  </si>
+  <si>
+    <t>Quantità di denaro necessaria per poter usufruire di un eventuale servizio.</t>
+  </si>
+  <si>
+    <t>Quantità di denaro rappresentante il debito del cliente nei confronti dell'hotel.</t>
+  </si>
+  <si>
+    <t>Villeggiatura, Vacanza</t>
+  </si>
+  <si>
+    <t>Piano tariffario dell'hotel che garantisce al cliente la permanenza nella struttura e la consumazione gratuita dei 3 pasti principali della giornata.</t>
+  </si>
+  <si>
+    <t>Bed&amp;Breakfast (BB)</t>
+  </si>
+  <si>
+    <t>Piano tariffario</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Prezzo, Tariffa</t>
+  </si>
+  <si>
+    <t>Piano tariffario dell'hotel che garantisce la permanenza nella struttura e la colazione della mattina seguente, questo fino al termine del periodo di soggiorno.</t>
+  </si>
+  <si>
+    <t>Offerta data ai clienti per poter usufruire, secondo varie possibilità, dei servizi offerti dall'hotel. Il piano tariffario varia e di conseguenza ne varia anche il suo costo.</t>
+  </si>
+  <si>
+    <t>Pacchetto vacanza.</t>
+  </si>
+  <si>
+    <t>Pensiona completa (PC)</t>
+  </si>
+  <si>
+    <t>All-inclusive (ALI)</t>
+  </si>
+  <si>
+    <t>Tipologia Soggiorno</t>
+  </si>
+  <si>
+    <t>Coordinazione</t>
+  </si>
+  <si>
+    <t>Dipendente</t>
+  </si>
+  <si>
+    <t>Modifica delle tariffe</t>
   </si>
   <si>
     <r>
@@ -278,7 +735,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 3L + 4S -&gt; 550 al giorno</t>
+      <t>: 4L + 7S -&gt; 1.800 al giorno</t>
     </r>
   </si>
   <si>
@@ -301,7 +758,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 3L + 6S -&gt; 1.900 al giorno</t>
+      <t>: 4L + 7S -&gt; 90 al giorno</t>
     </r>
   </si>
   <si>
@@ -324,7 +781,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 2L + 3S -&gt; 80 al giorno</t>
+      <t>: 7L -&gt; 1.400 al giorno</t>
     </r>
   </si>
   <si>
@@ -347,423 +804,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 7S -&gt; 140 al giorno</t>
+      <t>: 4L + 3S -&gt; 500 al giorno</t>
     </r>
-  </si>
-  <si>
-    <t>PACCHETTO VACANZE</t>
-  </si>
-  <si>
-    <t>COSTO SETTIMANALE - SINGOLA</t>
-  </si>
-  <si>
-    <t>COSTO SETTIMANALE - DOPPIA</t>
-  </si>
-  <si>
-    <t>COSTO SETTIMANALE - FAMILIARE</t>
-  </si>
-  <si>
-    <t>BED AND BREAKFAST</t>
-  </si>
-  <si>
-    <t>PENSIONE COMPLETA</t>
-  </si>
-  <si>
-    <t>ALL - INCLUSIVE</t>
-  </si>
-  <si>
-    <t>COSTO GIORNALIERO - SINGOLA</t>
-  </si>
-  <si>
-    <t>COSTO GIORNALIERO - DOPPIA</t>
-  </si>
-  <si>
-    <t>COSTO GIORNALIERO - FAMILIARE</t>
-  </si>
-  <si>
-    <t>SERVIZI HOTEL</t>
-  </si>
-  <si>
-    <t>Lettino Spiaggia</t>
-  </si>
-  <si>
-    <t>Palestra</t>
-  </si>
-  <si>
-    <t>Casinò</t>
-  </si>
-  <si>
-    <t>Parcheggio</t>
-  </si>
-  <si>
-    <t>SERVIZI BENESSERE</t>
-  </si>
-  <si>
-    <t>TARIFFE</t>
-  </si>
-  <si>
-    <t>Massaggio Normale</t>
-  </si>
-  <si>
-    <t>Fango con doccia termale</t>
-  </si>
-  <si>
-    <t>Bagno termale</t>
-  </si>
-  <si>
-    <t>Bagno con idromassaggio</t>
-  </si>
-  <si>
-    <t>TERMINE</t>
-  </si>
-  <si>
-    <t>BREVE DESCRIZIONE</t>
-  </si>
-  <si>
-    <t>SINONIMI</t>
-  </si>
-  <si>
-    <t>Colui che risiede nella struttura 
-temporaneamente a seguito di un pagamento.</t>
-  </si>
-  <si>
-    <t>Turista</t>
-  </si>
-  <si>
-    <t>Membro del personale</t>
-  </si>
-  <si>
-    <t>Colui che assiste i clienti per tutta la durata del soggiorno.</t>
-  </si>
-  <si>
-    <t>Membro dello staff, Addetto</t>
-  </si>
-  <si>
-    <t>Ruolo</t>
-  </si>
-  <si>
-    <t>Occupazione di un addetto dell'hotel all'interno della struttura.</t>
-  </si>
-  <si>
-    <t>Mansione</t>
-  </si>
-  <si>
-    <t>Resoconto di pagamento</t>
-  </si>
-  <si>
-    <t>Permanenza temporanea in un luogo.</t>
-  </si>
-  <si>
-    <t>Servizio</t>
-  </si>
-  <si>
-    <t>Prestazione da parte di un membro del 
-personale nei confronti di un cliente.</t>
-  </si>
-  <si>
-    <t>Prestazione</t>
-  </si>
-  <si>
-    <t>Stanza familiare</t>
-  </si>
-  <si>
-    <t>Stanza della struttura in grado di accogliere un nucleo familiare di 4 oppure 5 persone.</t>
-  </si>
-  <si>
-    <t>Piano tariffario dell'hotel che garantisce al cliente la permanenza nella struttura, la consumazione gratuita dei 3 pasti principali della giornata e una base di servizi che normalmente sarebbero a pagamento.</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Effettuazione</t>
-  </si>
-  <si>
-    <t>Accesso</t>
-  </si>
-  <si>
-    <t>Erogazione</t>
-  </si>
-  <si>
-    <t>Condizionamento</t>
-  </si>
-  <si>
-    <t>Codice</t>
-  </si>
-  <si>
-    <t>Operazione</t>
-  </si>
-  <si>
-    <t>Frequenza</t>
-  </si>
-  <si>
-    <t>Registrazione di un nuovo cliente</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Check-out di un ciente</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Effetuare una prenotazione</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Cancellare una prenotazione</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Visualizzazione di una prenotazione</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Addebitazione costi di un servizio</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Lettura di una scheda di un cliente</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a settimana</t>
-    </r>
-  </si>
-  <si>
-    <t>Visualizzazione acquisti di un cliente</t>
-  </si>
-  <si>
-    <t>Visualizzazione clienti</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Visualizzazione clienti con filtri</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al mese</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all'anno</t>
-    </r>
-  </si>
-  <si>
-    <t>OP 8 - Visualizzazione acquisti</t>
-  </si>
-  <si>
-    <t>OP 4 - Cancellare prenotazione</t>
-  </si>
-  <si>
-    <t>SENZA RIDONDANZA (resoconto)</t>
   </si>
   <si>
     <r>
@@ -785,8 +827,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 102L + 3S -&gt; 1.080 al giorno</t>
+      <t>: 36L -&gt; 360 a settimana</t>
     </r>
+  </si>
+  <si>
+    <t>OP 11 -  Modifica delle tariffe</t>
   </si>
   <si>
     <r>
@@ -808,7 +853,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 103L + 4S -&gt; 565 al giorno</t>
+      <t>: 221S -&gt; 442 all'anno</t>
     </r>
   </si>
   <si>
@@ -831,11 +876,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 106L -&gt; 3.200 al giorno</t>
+      <t>: 202L + 3S -&gt; 2080 al giorno</t>
     </r>
-  </si>
-  <si>
-    <t>OP 5 - Visualizzare prenotazione</t>
   </si>
   <si>
     <r>
@@ -857,68 +899,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 105L -&gt; 1.050 a settimana</t>
+      <t>: 4L + 104S -&gt; 1060 al giorno</t>
     </r>
-  </si>
-  <si>
-    <t>OP 7 - Lettura scheda cliente</t>
-  </si>
-  <si>
-    <t>OP 12 - Generazione documento</t>
-  </si>
-  <si>
-    <t>Oggetto che riporta i dati personali e il resoconto di un cliente.</t>
-  </si>
-  <si>
-    <t>Quantità di denaro necessaria per poter usufruire di un eventuale servizio.</t>
-  </si>
-  <si>
-    <t>Quantità di denaro rappresentante il debito del cliente nei confronti dell'hotel.</t>
-  </si>
-  <si>
-    <t>Villeggiatura, Vacanza</t>
-  </si>
-  <si>
-    <t>Piano tariffario dell'hotel che garantisce al cliente la permanenza nella struttura e la consumazione gratuita dei 3 pasti principali della giornata.</t>
-  </si>
-  <si>
-    <t>Bed&amp;Breakfast (BB)</t>
-  </si>
-  <si>
-    <t>Piano tariffario</t>
-  </si>
-  <si>
-    <t>Costo</t>
-  </si>
-  <si>
-    <t>Prezzo, Tariffa</t>
-  </si>
-  <si>
-    <t>Piano tariffario dell'hotel che garantisce la permanenza nella struttura e la colazione della mattina seguente, questo fino al termine del periodo di soggiorno.</t>
-  </si>
-  <si>
-    <t>Offerta data ai clienti per poter usufruire, secondo varie possibilità, dei servizi offerti dall'hotel. Il piano tariffario varia e di conseguenza ne varia anche il suo costo.</t>
-  </si>
-  <si>
-    <t>Pacchetto vacanza.</t>
-  </si>
-  <si>
-    <t>Pensiona completa (PC)</t>
-  </si>
-  <si>
-    <t>All-inclusive (ALI)</t>
-  </si>
-  <si>
-    <t>Tipologia Soggiorno</t>
-  </si>
-  <si>
-    <t>Coordinazione</t>
-  </si>
-  <si>
-    <t>Dipendente</t>
-  </si>
-  <si>
-    <t>Modifica delle tariffe</t>
   </si>
   <si>
     <r>
@@ -940,7 +922,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 4L + 7S -&gt; 1.800 al giorno</t>
+      <t>: 106L -&gt; 2.120 al giorno</t>
     </r>
   </si>
   <si>
@@ -963,7 +945,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 4L + 7S -&gt; 90 al giorno</t>
+      <t>: 106L -&gt; 1.060 a settimana</t>
     </r>
   </si>
   <si>
@@ -986,79 +968,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 7L -&gt; 1.400 al giorno</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Totale</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 4L + 3S -&gt; 500 al giorno</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Totale</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 36L -&gt; 360 a settimana</t>
-    </r>
-  </si>
-  <si>
-    <t>OP 11 -  Modifica delle tariffe</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Totale</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: 221S -&gt; 442 all'anno</t>
+      <t>: 135L -&gt; 1350 a settimana</t>
     </r>
   </si>
 </sst>
@@ -2285,21 +2195,21 @@
   <sheetData>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C5" s="25">
         <v>400</v>
@@ -2313,7 +2223,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C6" s="25">
         <v>500</v>
@@ -2327,7 +2237,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C7" s="25">
         <v>900</v>
@@ -2341,21 +2251,21 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="39" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="39" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C10" s="25">
         <v>60</v>
@@ -2369,7 +2279,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C11" s="25">
         <v>90</v>
@@ -2383,7 +2293,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C12" s="25">
         <v>150</v>
@@ -2400,15 +2310,15 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C17" s="25">
         <v>20</v>
@@ -2416,7 +2326,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C18" s="25">
         <v>40</v>
@@ -2424,7 +2334,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C19" s="25">
         <v>15</v>
@@ -2432,7 +2342,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C20" s="25">
         <v>25</v>
@@ -2443,16 +2353,16 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E24" s="26"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="24" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C25" s="25">
         <v>8</v>
@@ -2460,7 +2370,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C26" s="25">
         <v>5</v>
@@ -2468,7 +2378,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C27" s="25">
         <v>10</v>
@@ -2476,7 +2386,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C28" s="25">
         <v>8</v>
@@ -2518,145 +2428,145 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="20" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D3" s="29"/>
     </row>
     <row r="4" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D7" s="29"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D10" s="31"/>
     </row>
     <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D12" s="38"/>
     </row>
     <row r="13" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D13" s="31"/>
     </row>
     <row r="14" spans="2:12" ht="120" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D14" s="31"/>
     </row>
@@ -2696,12 +2606,12 @@
         <v>1</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>5</v>
@@ -2712,7 +2622,7 @@
     </row>
     <row r="7" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="40" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>5</v>
@@ -2723,7 +2633,7 @@
     </row>
     <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="40" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>5</v>
@@ -2736,7 +2646,7 @@
     <row r="9" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>5</v>
@@ -2747,10 +2657,10 @@
     </row>
     <row r="11" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="41">
         <v>10000</v>
@@ -2759,10 +2669,10 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="41">
         <v>10</v>
@@ -2772,7 +2682,7 @@
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>5</v>
@@ -2783,10 +2693,10 @@
     </row>
     <row r="16" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="41">
         <v>100000</v>
@@ -2794,10 +2704,10 @@
     </row>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="41">
         <v>10000</v>
@@ -2818,10 +2728,10 @@
     </row>
     <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="41">
         <v>100000</v>
@@ -2829,10 +2739,10 @@
     </row>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="40" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="41">
         <v>30</v>
@@ -2842,7 +2752,7 @@
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="40" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B25" s="34" t="s">
         <v>5</v>
@@ -2853,10 +2763,10 @@
     </row>
     <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="41">
         <v>3000</v>
@@ -2864,7 +2774,7 @@
     </row>
     <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>5</v>
@@ -2877,7 +2787,7 @@
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="40" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>5</v>
@@ -2888,10 +2798,10 @@
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="41">
         <v>100</v>
@@ -2899,10 +2809,10 @@
     </row>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32" s="41">
         <v>100</v>
@@ -2933,13 +2843,13 @@
   <sheetData>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2947,10 +2857,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2958,10 +2868,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2969,10 +2879,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2980,10 +2890,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2991,10 +2901,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3002,10 +2912,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3013,10 +2923,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3024,10 +2934,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3035,10 +2945,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3046,10 +2956,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3057,10 +2967,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3073,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC43067-F894-4C47-922B-28D91B34693D}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93:E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,7 +3000,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -3112,7 +3022,7 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>5</v>
@@ -3127,10 +3037,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
@@ -3142,7 +3052,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>5</v>
@@ -3157,10 +3067,10 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
@@ -3172,7 +3082,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>5</v>
@@ -3187,10 +3097,10 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
@@ -3202,7 +3112,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>5</v>
@@ -3218,14 +3128,14 @@
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -3248,7 +3158,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>5</v>
@@ -3263,10 +3173,10 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="12">
         <v>1</v>
@@ -3278,7 +3188,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>5</v>
@@ -3293,10 +3203,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="12">
         <v>1</v>
@@ -3308,7 +3218,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>5</v>
@@ -3325,14 +3235,14 @@
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E20" s="17"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -3354,7 +3264,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>5</v>
@@ -3368,10 +3278,10 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
@@ -3382,7 +3292,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>5</v>
@@ -3396,10 +3306,10 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="12">
         <v>1</v>
@@ -3410,7 +3320,7 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>5</v>
@@ -3424,10 +3334,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29" s="12">
         <v>3</v>
@@ -3454,14 +3364,14 @@
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E31" s="17"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -3483,7 +3393,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>5</v>
@@ -3497,10 +3407,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
@@ -3511,7 +3421,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>5</v>
@@ -3525,10 +3435,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="12">
         <v>1</v>
@@ -3539,7 +3449,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>5</v>
@@ -3553,10 +3463,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D40" s="12">
         <v>3</v>
@@ -3583,7 +3493,7 @@
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
       <c r="D42" s="16" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E42" s="17"/>
     </row>
@@ -3596,7 +3506,7 @@
     <row r="50" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -3618,7 +3528,7 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>5</v>
@@ -3632,10 +3542,10 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D54" s="12">
         <v>1</v>
@@ -3646,7 +3556,7 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>5</v>
@@ -3660,10 +3570,10 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" s="12">
         <v>1</v>
@@ -3674,7 +3584,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>5</v>
@@ -3688,10 +3598,10 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="12">
         <v>1</v>
@@ -3718,14 +3628,14 @@
       <c r="B60" s="14"/>
       <c r="C60" s="15"/>
       <c r="D60" s="16" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E60" s="17"/>
     </row>
     <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -3747,7 +3657,7 @@
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>5</v>
@@ -3761,10 +3671,10 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D65" s="12">
         <v>1</v>
@@ -3775,7 +3685,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>5</v>
@@ -3789,10 +3699,10 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" s="12">
         <v>1</v>
@@ -3803,7 +3713,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>5</v>
@@ -3817,10 +3727,10 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D69" s="12">
         <v>1</v>
@@ -3847,14 +3757,14 @@
       <c r="B71" s="14"/>
       <c r="C71" s="15"/>
       <c r="D71" s="16" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E71" s="17"/>
     </row>
     <row r="72" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -3876,7 +3786,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>5</v>
@@ -3890,10 +3800,10 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" s="12">
         <v>1</v>
@@ -3904,7 +3814,7 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>5</v>
@@ -3918,10 +3828,10 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D78" s="12">
         <v>1</v>
@@ -3932,7 +3842,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>5</v>
@@ -3948,14 +3858,14 @@
       <c r="B80" s="14"/>
       <c r="C80" s="15"/>
       <c r="D80" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E80" s="17"/>
     </row>
     <row r="81" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -3977,7 +3887,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>5</v>
@@ -3991,10 +3901,10 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D85" s="12">
         <v>1</v>
@@ -4005,7 +3915,7 @@
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C86" s="12" t="s">
         <v>5</v>
@@ -4019,10 +3929,10 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" s="12">
         <v>1</v>
@@ -4033,7 +3943,7 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C88" s="12" t="s">
         <v>5</v>
@@ -4047,10 +3957,10 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D89" s="12">
         <v>1</v>
@@ -4077,14 +3987,14 @@
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
       <c r="D91" s="16" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E91" s="17"/>
     </row>
     <row r="92" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="6"/>
@@ -4106,7 +4016,7 @@
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C95" s="12" t="s">
         <v>5</v>
@@ -4120,10 +4030,10 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96" s="12">
         <v>1000</v>
@@ -4134,7 +4044,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C97" s="12" t="s">
         <v>5</v>
@@ -4150,14 +4060,14 @@
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
       <c r="D98" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E98" s="17"/>
     </row>
     <row r="100" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -4179,7 +4089,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>5</v>
@@ -4193,10 +4103,10 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104" s="12">
         <v>1</v>
@@ -4207,7 +4117,7 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>5</v>
@@ -4221,10 +4131,10 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D106" s="12">
         <v>1</v>
@@ -4235,7 +4145,7 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B107" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>5</v>
@@ -4251,14 +4161,14 @@
       <c r="B108" s="14"/>
       <c r="C108" s="15"/>
       <c r="D108" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E108" s="17"/>
     </row>
     <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="18" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -4280,7 +4190,7 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>5</v>
@@ -4294,10 +4204,10 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="11" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D113" s="12">
         <v>10</v>
@@ -4308,7 +4218,7 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="11" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>5</v>
@@ -4322,10 +4232,10 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="11" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D115" s="12">
         <v>100</v>
@@ -4336,7 +4246,7 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>5</v>
@@ -4352,7 +4262,7 @@
       <c r="B117" s="14"/>
       <c r="C117" s="15"/>
       <c r="D117" s="16" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E117" s="17"/>
     </row>
@@ -4364,17 +4274,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EC3296-8FDF-4C89-A16A-D342517C31E8}">
-  <dimension ref="B1:E133"/>
+  <dimension ref="B1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
@@ -4382,7 +4292,7 @@
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -4404,7 +4314,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>5</v>
@@ -4418,10 +4328,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="12">
         <v>1</v>
@@ -4432,7 +4342,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>5</v>
@@ -4446,10 +4356,10 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="12">
         <v>1</v>
@@ -4460,7 +4370,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>5</v>
@@ -4474,10 +4384,10 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="12">
         <v>1</v>
@@ -4488,7 +4398,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>5</v>
@@ -4504,18 +4414,18 @@
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="36" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E13" s="7"/>
     </row>
@@ -4535,7 +4445,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>5</v>
@@ -4549,10 +4459,10 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="12">
         <v>1</v>
@@ -4563,7 +4473,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>5</v>
@@ -4577,10 +4487,10 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="12">
         <v>1</v>
@@ -4591,83 +4501,83 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="12">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D20" s="12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-    </row>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="12">
+        <v>100</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="17"/>
+    </row>
+    <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="12">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D26" s="12">
         <v>1</v>
@@ -4678,10 +4588,10 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D27" s="12">
         <v>1</v>
@@ -4692,10 +4602,10 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D28" s="12">
         <v>1</v>
@@ -4709,7 +4619,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D29" s="12">
         <v>1</v>
@@ -4720,24 +4630,24 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D30" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D31" s="12">
         <v>3</v>
@@ -4746,59 +4656,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="14"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="7"/>
-    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="12">
+        <v>3</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9" t="s">
+      <c r="C36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="12">
-        <v>1</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
@@ -4809,10 +4719,10 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D38" s="12">
         <v>1</v>
@@ -4823,10 +4733,10 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D39" s="12">
         <v>1</v>
@@ -4840,7 +4750,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
@@ -4851,30 +4761,30 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D41" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D42" s="12">
         <v>100</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
@@ -4895,18 +4805,18 @@
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
       <c r="D44" s="16" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E44" s="17"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="36" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E52" s="7"/>
     </row>
@@ -4926,7 +4836,7 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>5</v>
@@ -4940,10 +4850,10 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D55" s="12">
         <v>1</v>
@@ -4954,7 +4864,7 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>5</v>
@@ -4968,10 +4878,10 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
@@ -4982,7 +4892,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>5</v>
@@ -4996,10 +4906,10 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D59" s="12">
         <v>100</v>
@@ -5026,14 +4936,14 @@
       <c r="B61" s="14"/>
       <c r="C61" s="15"/>
       <c r="D61" s="16" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E61" s="17"/>
     </row>
     <row r="62" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -5055,7 +4965,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>5</v>
@@ -5069,21 +4979,21 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D66" s="12">
         <v>1</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>5</v>
@@ -5097,10 +5007,10 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" s="12">
         <v>1</v>
@@ -5111,7 +5021,7 @@
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>5</v>
@@ -5125,10 +5035,10 @@
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D70" s="12">
         <v>1</v>
@@ -5155,18 +5065,18 @@
       <c r="B72" s="14"/>
       <c r="C72" s="15"/>
       <c r="D72" s="16" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="E72" s="17"/>
     </row>
     <row r="73" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="36" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E74" s="7"/>
     </row>
@@ -5186,7 +5096,7 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>5</v>
@@ -5200,10 +5110,10 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D77" s="12">
         <v>1</v>
@@ -5214,7 +5124,7 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>5</v>
@@ -5228,10 +5138,10 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B79" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D79" s="12">
         <v>1</v>
@@ -5242,113 +5152,114 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="12">
+        <v>1</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="12">
+        <v>1</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="12">
+        <v>100</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" s="17"/>
+    </row>
+    <row r="84" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="6"/>
+      <c r="D85" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E85" s="7"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="12">
+        <v>1</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="12">
-        <v>1</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="12">
-        <v>100</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E82" s="17"/>
-    </row>
-    <row r="83" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C84" s="6"/>
-      <c r="D84" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E84" s="7"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="12">
-        <v>1</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="11" t="s">
+      <c r="C88" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="12">
+        <v>1</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="12">
-        <v>1</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D88" s="12">
-        <v>1</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="11" t="s">
-        <v>8</v>
-      </c>
       <c r="C89" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D89" s="12">
         <v>1</v>
@@ -5357,12 +5268,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D90" s="12">
         <v>1</v>
@@ -5371,46 +5282,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="12">
+        <v>1</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="12">
+        <v>100</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="12">
-        <v>100</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="12">
+      <c r="C93" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="12">
         <v>30</v>
       </c>
-      <c r="E92" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" s="17"/>
+      <c r="E93" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="17"/>
     </row>
     <row r="101" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C102" s="19"/>
       <c r="D102" s="6"/>
@@ -5432,7 +5357,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>5</v>
@@ -5446,10 +5371,10 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D105" s="12">
         <v>1000</v>
@@ -5460,7 +5385,7 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>5</v>
@@ -5476,14 +5401,14 @@
       <c r="B107" s="14"/>
       <c r="C107" s="15"/>
       <c r="D107" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E107" s="17"/>
     </row>
     <row r="108" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -5505,7 +5430,7 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>5</v>
@@ -5519,10 +5444,10 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D112" s="12">
         <v>1</v>
@@ -5533,7 +5458,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>5</v>
@@ -5547,10 +5472,10 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D114" s="12">
         <v>1</v>
@@ -5561,7 +5486,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>5</v>
@@ -5577,14 +5502,14 @@
       <c r="B116" s="14"/>
       <c r="C116" s="15"/>
       <c r="D116" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E116" s="17"/>
     </row>
     <row r="117" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="18" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -5606,7 +5531,7 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>5</v>
@@ -5620,10 +5545,10 @@
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="11" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D121" s="12">
         <v>10</v>
@@ -5634,7 +5559,7 @@
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="11" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>5</v>
@@ -5646,130 +5571,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="14"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E123" s="17"/>
-    </row>
-    <row r="124" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B125" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C125" s="6"/>
-      <c r="D125" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E125" s="7"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B126" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B127" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" s="12">
-        <v>1</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B128" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="12">
-        <v>1</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B129" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D129" s="12">
-        <v>1</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B130" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="12">
-        <v>1</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B131" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D131" s="12">
-        <v>1</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B132" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D132" s="12">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="12">
         <v>100</v>
       </c>
-      <c r="E132" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="14"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E133" s="17"/>
+      <c r="E123" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" s="12">
+        <v>100</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="14"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E125" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
